--- a/JSON TO XCEL/financial_results.xlsx
+++ b/JSON TO XCEL/financial_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Particulars</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>7.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -1213,6 +1216,11 @@
         <v>129</v>
       </c>
     </row>
+    <row r="23" spans="1:6">
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
